--- a/ExcelToXMLConverter/resources/SIGIDOC_ENG_BG_2025.03.26.test.xlsx
+++ b/ExcelToXMLConverter/resources/SIGIDOC_ENG_BG_2025.03.26.test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/repos/codecrew/SigiDoc/ExcelToXMLConverter/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC0FDE7-18DF-7A40-A66C-9121209167A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700D32B0-D9C9-A54E-A4D8-D03FFE768560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3806,9 +3806,9 @@
   <dimension ref="A1:AMT136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A66" sqref="A66"/>
-      <selection pane="topRight" activeCell="AE17" sqref="AE17"/>
+      <selection pane="topRight" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="15"/>
